--- a/Data/EC/NIT-9013547510.xlsx
+++ b/Data/EC/NIT-9013547510.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F70942E2-14A5-4EBC-9416-222BBD4E81A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{196472B1-51D7-42A9-BF31-D9C2F87C2FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B2A56C4-2BA6-4074-BF79-82276A273FD9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09503961-CEF4-4A3A-BD2B-3728D12CB860}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="64">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,97 +65,136 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047510101</t>
+  </si>
+  <si>
+    <t>DORIS FABIOLA PEREZ ESTRADA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>1047445316</t>
+  </si>
+  <si>
+    <t>JAMES MARTIN MATOREL CASTILLO</t>
+  </si>
+  <si>
+    <t>1047419664</t>
+  </si>
+  <si>
+    <t>DAVID ANTONIO DIAZ RIOS</t>
+  </si>
+  <si>
+    <t>1047419669</t>
+  </si>
+  <si>
+    <t>LUIS MIGUEL FUENTES DE AVILA</t>
+  </si>
+  <si>
+    <t>1043636953</t>
+  </si>
+  <si>
+    <t>JUAN DAVID HERNANDEZ CASTRO</t>
+  </si>
+  <si>
+    <t>1143339128</t>
+  </si>
+  <si>
+    <t>YENNIFER JULIETH ROCHA FLOREZ</t>
+  </si>
+  <si>
+    <t>1001979306</t>
+  </si>
+  <si>
+    <t>KEHIRY ESTEFANY GONZALEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1143403633</t>
+  </si>
+  <si>
+    <t>ANDRES FELIPE BLANQUICETT BELEÃ?O</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
     <t>1050976903</t>
   </si>
   <si>
     <t>BRANDON PUERTA POLO</t>
   </si>
   <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
     <t>2308</t>
   </si>
   <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>1143403633</t>
-  </si>
-  <si>
-    <t>ANDRES FELIPE BLANQUICETT BELEÃ?O</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1047445316</t>
-  </si>
-  <si>
-    <t>JAMES MARTIN MATOREL CASTILLO</t>
-  </si>
-  <si>
-    <t>1047510101</t>
-  </si>
-  <si>
-    <t>DORIS FABIOLA PEREZ ESTRADA</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1007256962</t>
+  </si>
+  <si>
+    <t>DULEIMYS PAOLA RAMIZREZ ARROYO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -569,7 +608,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979D5FC6-972D-95CE-25F3-DEA17D67CFD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFFA1E5F-D1E6-C9B1-DD9C-49B40B846828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,8 +959,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8ADF42-94EB-4618-B802-C0A891D24089}">
-  <dimension ref="B2:J52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08FA813-CAC8-4E14-B868-A0E92D8ED7AB}">
+  <dimension ref="B2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -932,7 +971,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -945,7 +984,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -990,7 +1029,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1022,12 +1061,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1522720</v>
+        <v>2488740</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1038,17 +1077,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F13" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1075,13 +1114,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1098,10 +1137,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1121,10 +1160,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1135,19 +1174,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1158,19 +1197,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1181,19 +1220,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>160000</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>4000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1204,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>160000</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>4000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1227,19 +1266,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>6000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1250,19 +1289,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>6000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1273,19 +1312,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>64000</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>1600000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1296,19 +1335,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>64000</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>1600000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1319,19 +1358,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>46400</v>
+        <v>44800</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1342,19 +1381,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
-        <v>46400</v>
+        <v>64000</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1600000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1365,19 +1404,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F28" s="18">
-        <v>46400</v>
+        <v>64000</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>1600000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1388,19 +1427,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F29" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1411,19 +1450,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1434,19 +1473,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G31" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1457,19 +1496,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G32" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1480,19 +1519,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G33" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1503,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1526,13 +1565,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1549,19 +1588,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G36" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1572,19 +1611,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F37" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G37" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1595,13 +1634,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1618,19 +1657,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="F39" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G39" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1641,13 +1680,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1664,19 +1703,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F41" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G41" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1687,19 +1726,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F42" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1710,19 +1749,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F43" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1733,19 +1772,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F44" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1756,13 +1795,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F45" s="18">
         <v>46400</v>
@@ -1775,56 +1814,355 @@
       <c r="J45" s="20"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="22" t="s">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F46" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G46" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="26"/>
+      <c r="F46" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="H51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="H52" s="1" t="s">
+      <c r="F56" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="F57" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="18">
+        <v>64000</v>
+      </c>
+      <c r="G58" s="18">
+        <v>1600000</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="24">
+        <v>64000</v>
+      </c>
+      <c r="G59" s="24">
+        <v>1600000</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="26"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="32"/>
+      <c r="H64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="H65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H64:J64"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9013547510.xlsx
+++ b/Data/EC/NIT-9013547510.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{196472B1-51D7-42A9-BF31-D9C2F87C2FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB439F7D-8664-4457-ABEB-F3347526CD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{09503961-CEF4-4A3A-BD2B-3728D12CB860}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C0ED11E7-2EDD-4727-BC44-806D4A55F43B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,16 +65,97 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1050976903</t>
+  </si>
+  <si>
+    <t>BRANDON PUERTA POLO</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>1143403633</t>
+  </si>
+  <si>
+    <t>ANDRES FELIPE BLANQUICETT BELEÃ?O</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
     <t>1047510101</t>
   </si>
   <si>
     <t>DORIS FABIOLA PEREZ ESTRADA</t>
   </si>
   <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>2508</t>
   </si>
   <si>
     <t>1047445316</t>
@@ -83,18 +164,6 @@
     <t>JAMES MARTIN MATOREL CASTILLO</t>
   </si>
   <si>
-    <t>1047419664</t>
-  </si>
-  <si>
-    <t>DAVID ANTONIO DIAZ RIOS</t>
-  </si>
-  <si>
-    <t>1047419669</t>
-  </si>
-  <si>
-    <t>LUIS MIGUEL FUENTES DE AVILA</t>
-  </si>
-  <si>
     <t>1043636953</t>
   </si>
   <si>
@@ -107,88 +176,16 @@
     <t>YENNIFER JULIETH ROCHA FLOREZ</t>
   </si>
   <si>
+    <t>1140897998</t>
+  </si>
+  <si>
+    <t>YORWIN ANTONIO RIOS VELASQUEZ</t>
+  </si>
+  <si>
     <t>1001979306</t>
   </si>
   <si>
     <t>KEHIRY ESTEFANY GONZALEZ HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1143403633</t>
-  </si>
-  <si>
-    <t>ANDRES FELIPE BLANQUICETT BELEÃ?O</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>1050976903</t>
-  </si>
-  <si>
-    <t>BRANDON PUERTA POLO</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
   </si>
   <si>
     <t>1007256962</t>
@@ -293,7 +290,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -306,9 +305,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -508,23 +505,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,10 +549,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,7 +605,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFFA1E5F-D1E6-C9B1-DD9C-49B40B846828}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F7F580-8E8B-17F8-CBBF-31CCD20D9804}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,8 +956,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08FA813-CAC8-4E14-B868-A0E92D8ED7AB}">
-  <dimension ref="B2:J65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97E6FEA-D08E-4084-A35D-2AED818422F2}">
+  <dimension ref="B2:J59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -984,7 +981,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1029,7 +1026,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1061,12 +1058,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2488740</v>
+        <v>1900340</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1077,17 +1074,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1114,13 +1111,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1137,10 +1134,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1160,10 +1157,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1174,19 +1171,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1197,19 +1194,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F19" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1220,19 +1217,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F20" s="18">
-        <v>160000</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>4000000</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1243,19 +1240,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F21" s="18">
-        <v>160000</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>4000000</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1266,19 +1263,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F22" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>6000000</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1289,19 +1286,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F23" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>6000000</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1312,19 +1309,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F24" s="18">
-        <v>64000</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1600000</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1335,19 +1332,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F25" s="18">
-        <v>64000</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1600000</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1358,19 +1355,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F26" s="18">
-        <v>44800</v>
+        <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1381,19 +1378,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>64000</v>
+        <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>1600000</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1404,19 +1401,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F28" s="18">
-        <v>64000</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1600000</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1427,19 +1424,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1450,19 +1447,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F30" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1473,19 +1470,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F31" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G31" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1496,19 +1493,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G32" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1519,19 +1516,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1542,13 +1539,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1571,13 +1568,13 @@
         <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G35" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1588,13 +1585,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1617,13 +1614,13 @@
         <v>31</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G37" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1634,13 +1631,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1663,13 +1660,13 @@
         <v>31</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G39" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1680,13 +1677,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1709,13 +1706,13 @@
         <v>31</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G41" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1726,10 +1723,10 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>35</v>
@@ -1758,10 +1755,10 @@
         <v>36</v>
       </c>
       <c r="F43" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G43" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1772,13 +1769,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
@@ -1795,19 +1792,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F45" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1818,19 +1815,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F46" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G46" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1841,19 +1838,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F47" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G47" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1864,19 +1861,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F48" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G48" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1887,19 +1884,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F49" s="18">
-        <v>46400</v>
+        <v>57060</v>
       </c>
       <c r="G49" s="18">
-        <v>1160000</v>
+        <v>1426500</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1910,19 +1907,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F50" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G50" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1939,13 +1936,13 @@
         <v>31</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F51" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G51" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1956,13 +1953,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
@@ -1975,194 +1972,56 @@
       <c r="J52" s="20"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F55" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F56" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="16" t="s">
+      <c r="B53" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="D53" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G53" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="26"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="18">
-        <v>64000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1600000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="B58" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="H58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="24">
-        <v>64000</v>
-      </c>
-      <c r="G59" s="24">
-        <v>1600000</v>
-      </c>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="26"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="32" t="s">
+      <c r="B59" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="H59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="32"/>
-      <c r="H64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="32"/>
-      <c r="H65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H58:J58"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
